--- a/history.xlsx
+++ b/history.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zero0/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zero0/Documents/guoxue/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DCED3E7-D746-9A43-B38F-E03D0ED16F1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21ACAFA8-3739-2F4E-8840-55B0E1BDD88A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4300" yWindow="880" windowWidth="29860" windowHeight="18800" activeTab="1" xr2:uid="{43003191-CAD7-9747-8785-19833345119D}"/>
   </bookViews>
   <sheets>
     <sheet name="孙武生平" sheetId="2" r:id="rId1"/>
-    <sheet name="白起生平" sheetId="1" r:id="rId2"/>
+    <sheet name="吴起" sheetId="4" r:id="rId2"/>
+    <sheet name="白起生平" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1092,7 +1093,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
   <si>
     <t>主要事迹</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1313,6 +1314,66 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>吴起出生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地点：卫国（今河南一带）。
+背景：吴起出生在一个富裕家庭，从小聪明好学。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杀妻求将</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件：吴起在鲁国时，为了证明自己的忠诚，杀死了齐国籍的妻子，被鲁国国君任命为将。
+结果：吴起率军大败齐国，一战成名。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魏武卒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件：吴起来到魏国，被魏文侯重用。
+成就：
+训练“魏武卒”，多次击败秦国，夺取河西地区。
+推行变法，奖励耕战，使魏国成为强国。
+故事：吴起与士兵同甘共苦，亲自为士兵吸脓疮。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件：吴起来到楚国，被楚悼王任命为令尹（相当于宰相）。
+成就：
+推行变法，削弱贵族权力，奖励耕战，精简机构。
+楚国国力大增，成为战国时期的强国之一。
+故事：吴起的变法触动了贵族的利益，贵族们对他恨之入骨。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推行变法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件：楚悼王去世后，贵族发动叛乱，吴起被追杀。
+故事：吴起逃到楚悼王的灵堂，趴在楚悼王的尸体上。贵族射杀吴起时，也射中了楚悼王的尸体。后来这些贵族被新国君处死。
+意义：吴起虽然死了，但他的变法为楚国留下了深远的影响。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励耕战，精简机构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴起被杀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴起的一生充满了辉煌与争议。他的军事才能和改革精神为战国时期的历史增添了浓墨重彩的一笔，但他的极端行为也让人们对他既敬佩又惋惜。通过吴起的故事，我们可以学到智慧、勇气和改革精神，同时也要反思为达目的不择手段的后果。著作《吴子兵法》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1453,7 +1514,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1502,13 +1563,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1558,6 +1641,12 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1751,7 +1840,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5AD70B2D-A1FF-FB4E-9BE6-E4B3D445EB38}" type="CELLRANGE">
+                    <a:fld id="{925457B3-F52D-514F-AE75-EC6F92501BDB}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1785,7 +1874,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EF77DDE2-25DD-0F42-8D44-D7B0714C6B51}" type="CELLRANGE">
+                    <a:fld id="{A195DED6-4B07-2D47-984D-FBF4884DC556}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1819,7 +1908,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6C05A811-C47A-E04F-837C-8522815EB664}" type="CELLRANGE">
+                    <a:fld id="{7BE6A96B-71FC-9444-9DAD-D9D3C68B04A1}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1853,7 +1942,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A8C674F6-0905-A543-A843-19DD52460718}" type="CELLRANGE">
+                    <a:fld id="{A28E53CE-452F-EE49-B9DD-74C1D9041E37}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1887,7 +1976,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{91FF8231-7F2E-5840-BECA-7D168B3C7391}" type="CELLRANGE">
+                    <a:fld id="{D7CB8341-E170-054C-8859-D14813848F6E}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2304,6 +2393,736 @@
                   <a:srgbClr val="C00000"/>
                 </a:solidFill>
               </a:rPr>
+              <a:t>吴起的生平（公元前</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>440</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>～</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>381</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" baseline="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>年）</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.33253188657515187"/>
+          <c:y val="0.85081350097343911"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.1039023037074795E-2"/>
+          <c:y val="0.12932970665567231"/>
+          <c:w val="0.86365507436570432"/>
+          <c:h val="0.66277704870224552"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat">
+                <a:noFill/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{4CFD2A11-25DD-5645-A25A-DF18A6E18AE4}" type="CELLRANGE">
+                      <a:rPr lang="zh-CN" altLang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-0DF1-2E4E-9472-4D777CC6334D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{626E0C97-EA30-8D4A-A1C1-85C208E807BE}" type="CELLRANGE">
+                      <a:rPr lang="zh-CN" altLang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-0DF1-2E4E-9472-4D777CC6334D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{FE3C479A-3C1D-6E4B-BE68-2A1FD76720F7}" type="CELLRANGE">
+                      <a:rPr lang="zh-CN" altLang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-0DF1-2E4E-9472-4D777CC6334D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{84DFCFC2-2001-B74A-BF46-7F3ED910A167}" type="CELLRANGE">
+                      <a:rPr lang="zh-CN" altLang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-0DF1-2E4E-9472-4D777CC6334D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-0DF1-2E4E-9472-4D777CC6334D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{157B1420-0382-5748-A13D-57FC3875BB82}" type="CELLRANGE">
+                      <a:rPr lang="zh-CN" altLang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-0DF1-2E4E-9472-4D777CC6334D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:noFill/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="minus"/>
+            <c:errValType val="percentage"/>
+            <c:noEndCap val="1"/>
+            <c:val val="100"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="15875" cap="sq" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                    <a:alpha val="59000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="dash"/>
+                <a:bevel/>
+                <a:headEnd type="diamond"/>
+                <a:tailEnd type="none"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>吴起!$A$30:$A$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>415</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>409</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>387</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>386</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>381</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>吴起!$D$30:$D$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>吴起!$B$30:$B$35</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>吴起出生</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>杀妻求将</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>魏武卒</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>推行变法</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>奖励耕战，精简机构</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>吴起被杀</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-0DF1-2E4E-9472-4D777CC6334D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1443775055"/>
+        <c:axId val="1443776767"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1443775055"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+          <c:max val="450"/>
+          <c:min val="370"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1443776767"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="10"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1443776767"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:noFill/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1443775055"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>白起的生平（公元前～</a:t>
             </a:r>
             <a:r>
@@ -2415,7 +3234,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:fld id="{85BFA0DB-4E87-C84F-90F4-2EB5BACBE346}" type="CELLRANGE">
-                      <a:rPr lang="en-US" altLang="zh-CN"/>
+                      <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -2447,7 +3266,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5C8550E7-DA28-4E48-BDC0-FCF08AB14ECD}" type="CELLRANGE">
+                    <a:fld id="{912E30F0-7E59-2345-BD34-18A44221B201}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2481,7 +3300,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FF2547AB-54EE-8649-AA22-F1CC4FEA6D47}" type="CELLRANGE">
+                    <a:fld id="{03AED1E2-B631-4D41-B3B3-811CB20A9DFE}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2515,7 +3334,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8AFDB6A9-F886-DA43-80D8-52DC10322D5C}" type="CELLRANGE">
+                    <a:fld id="{A065F470-E8D3-414F-B030-EC8E985DC9F5}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2559,7 +3378,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E723B4BC-B511-4141-8615-E34824D33426}" type="CELLRANGE">
+                    <a:fld id="{2CBF8818-DCE6-CB47-A25B-977B93B0CB16}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2594,7 +3413,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:fld id="{7E041DF7-3872-2F42-BEA3-23B60F17636D}" type="CELLRANGE">
-                      <a:rPr lang="en-US" altLang="zh-CN"/>
+                      <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -2632,7 +3451,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8408B261-CA57-E541-889A-46565CF9CDF7}" type="CELLRANGE">
+                    <a:fld id="{138568E1-025D-3B49-A402-0BABED805AEA}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3108,6 +3927,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3625,6 +4484,522 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4578,6 +5953,445 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD6CF004-6143-B94F-B1A6-DC4338313676}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2578253</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>13617</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>111424</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23085270-8C5B-7847-BBB2-6A9471FFABC6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:alphaModFix amt="25000"/>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4800753" y="0"/>
+          <a:ext cx="1016764" cy="568624"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1285301</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>30603</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>696205</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>76506</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="圆角矩形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BE58613-E8A3-E845-A8F6-A7E6991728D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1742501" y="335403"/>
+          <a:ext cx="1176204" cy="503103"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </a:blipFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1208183</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>91196</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2386376</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>137099</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="圆角矩形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F95717B8-E99B-EE45-A3AA-ADD441A70711}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3434508" y="856256"/>
+          <a:ext cx="1178193" cy="504939"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </a:blipFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1590101</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>98234</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1001005</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>144137</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="圆角矩形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B878AE5C-7A1D-2148-B556-408760CA600A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2047301" y="2689034"/>
+          <a:ext cx="1176204" cy="503103"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </a:blipFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1811356</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>36417</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2989549</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>82320</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="圆角矩形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28AC5B52-E773-0242-9D48-10CC69DFA44E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4033856" y="3084417"/>
+          <a:ext cx="1178193" cy="503103"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill dpi="0" rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </a:blipFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.19382</cdr:x>
+      <cdr:y>0.78121</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.32564</cdr:x>
+      <cdr:y>0.96031</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="椭圆 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D96DAA6E-EBE0-E9B2-DBAA-CBAF44BB0FE6}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1113554" y="3303588"/>
+          <a:ext cx="757410" cy="757410"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </a:blipFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:noFill/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="zh-CN" altLang="en-US" kern="1200"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>56988</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>24424</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>454660</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="15" name="图表 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
@@ -4653,7 +6467,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
@@ -6003,10 +7817,308 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9823596C-AE29-FD40-B3A1-55486FDBEB7E}">
+  <dimension ref="A1:D36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="166" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41" style="4" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="12" customHeight="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4" ht="12" customHeight="1">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" ht="12" customHeight="1">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" ht="12" customHeight="1">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" ht="12" customHeight="1">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" ht="12" customHeight="1">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" ht="12" customHeight="1">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" ht="12" customHeight="1">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" ht="12" customHeight="1">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" ht="12" customHeight="1">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" ht="12" customHeight="1">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" ht="12" customHeight="1">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" ht="12" customHeight="1">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" ht="12" customHeight="1">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" ht="12" customHeight="1">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" ht="12" customHeight="1">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" ht="12" customHeight="1">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" ht="12" customHeight="1">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4" ht="12" customHeight="1">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" ht="12" customHeight="1">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:4" ht="12" customHeight="1">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:4" ht="12" customHeight="1">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:4" ht="12" customHeight="1">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:4" ht="12" customHeight="1">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:4" ht="12" customHeight="1">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:4" ht="12" customHeight="1">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:4" ht="12" customHeight="1">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:4" ht="12" customHeight="1">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:4" ht="17">
+      <c r="A29" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="24">
+      <c r="A30" s="5">
+        <v>440</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" s="13">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="36">
+      <c r="A31" s="5">
+        <v>415</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" s="13">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="60">
+      <c r="A32" s="5">
+        <v>409</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" s="13">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="44" customHeight="1">
+      <c r="A33" s="5">
+        <v>387</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" s="13">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="5">
+        <v>386</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="18"/>
+      <c r="D34" s="13"/>
+    </row>
+    <row r="35" spans="1:4" ht="48">
+      <c r="A35" s="5">
+        <v>381</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D35" s="13">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="23" customHeight="1">
+      <c r="A36" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="C33:C34"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEA888C0-848C-ED45-9697-8AF5FE6A78D0}">
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="134" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="134" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
